--- a/21_quarterly_sales_trends.xlsx
+++ b/21_quarterly_sales_trends.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\OneDrive\Dokumenty\electrical_wholesale_database\query_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E15D83-CF4C-45DB-9B23-6D4037F7DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BD8F6E-7CEF-4DB8-9B55-3E31FFBD3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -295,6 +295,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="dashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>quarterly_sales_trends!$A$2:$B$14</c:f>
@@ -1511,7 +1526,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1522,7 +1537,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1546,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +1555,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1564,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1560,7 +1575,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1584,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1593,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1602,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1598,7 +1613,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1622,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1631,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1640,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
